--- a/数据整理/stocks/港股/01171-兖矿能源.xlsx
+++ b/数据整理/stocks/港股/01171-兖矿能源.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3043,56 +3095,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>67</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/港股/01171-兖矿能源.xlsx
+++ b/数据整理/stocks/港股/01171-兖矿能源.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>67</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>33.77</v>
       </c>
     </row>
@@ -498,6 +515,3970 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>124.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8006</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9654</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1643</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8621</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3964</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3605</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9962</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8411</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011841</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7462</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6603</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6215</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6030</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5682</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5664</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5528</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5436</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4783</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4396</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2855</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011842</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007182</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>52.53</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012993</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富品牌力一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>52.36</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>24.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007183</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012994</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富品牌力一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012289</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012288</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015116</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>015117</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合D</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合B</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>015190</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>016921</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01171-兖矿能源.xlsx
+++ b/数据整理/stocks/港股/01171-兖矿能源.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>35.62</v>
+        <v>36.57</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>103</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>67</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>33.77</v>
       </c>
     </row>
@@ -515,6 +532,1960 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4225</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8472</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合D</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5482</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5465</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0924</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0487</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9246</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9209</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8756</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014404</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8422</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6106</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4302</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2602</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014405</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>016298</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧丰泰港股通混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014697</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方誉稳一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014698</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方誉稳一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014768</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>016297</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧丰泰港股通混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014767</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015116</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015190</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4478,7 +6449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
